--- a/Test/final_selection_df.xlsx
+++ b/Test/final_selection_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>NOSH</t>
+          <t>NOSH_x</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -516,58 +516,83 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>rank</t>
+          <t>ISIN Code:</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Free Float Round:</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Isin Code</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>FX/Index Ccy</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Close Prc</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>NOSH_y</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>211</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>III-GB</t>
+          <t>BNP-FR</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3I GROUP PLC</t>
+          <t>BNP PARIBAS ACT.A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>GB00B1YW4409</t>
+          <t>FR0000131104</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>XLON</t>
+          <t>XPAR</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>973383700</v>
+        <v>1130810671</v>
       </c>
       <c r="G2" t="n">
-        <v>37.88943</v>
+        <v>61.42</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>36880953564.291</v>
+        <v>69454391412.82001</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>EU500</t>
+          <t>EU500;EZ300</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>52406907.4761769</v>
+        <v>174120771.368864</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -576,174 +601,231 @@
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="n">
-        <v>400</v>
+        <v>3380</v>
       </c>
       <c r="P2" t="n">
-        <v>2.829</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
+        <v>2.493</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>FR0000131104</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>FR0000131104</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>64.45</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1130810671</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12</v>
+        <v>831</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ABBV-US</t>
+          <t>MC-FR</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ABBVIE INC.</t>
+          <t>LVMH</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>US00287Y1091</t>
+          <t>FR0000121014</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>XNYS</t>
+          <t>XPAR</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1766343800</v>
+        <v>500141700</v>
       </c>
       <c r="G3" t="n">
-        <v>176.7232</v>
+        <v>681.1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>312153928636.16</v>
+        <v>340646511870</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>NA500</t>
+          <t>EU500;EZ300</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>876964608.189754</v>
+        <v>248899383.311364</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3286</v>
       </c>
       <c r="P3" t="n">
-        <v>2.492</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2</v>
+        <v>2.595</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>FR0000121014</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>FR0000121014</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>607.7</v>
+      </c>
+      <c r="V3" t="n">
+        <v>500141700</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ACN-US</t>
+          <t>BVI-FR</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ACCENTURE PLC-A</t>
+          <t>BUREAU VERITAS</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>IE00B4BNMY34</t>
+          <t>FR0006174348</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>XNYS</t>
+          <t>XPAR</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>626384400</v>
+        <v>453871520</v>
       </c>
       <c r="G4" t="n">
-        <v>298.1348</v>
+        <v>29.34</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>186746987817.12</v>
+        <v>13316590396.8</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>NA500</t>
+          <t>EU500;EZ300</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>954559170.808251</v>
+        <v>18780091.9736364</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>2540</v>
+        <v>1460</v>
       </c>
       <c r="P4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3</v>
+        <v>2.693</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>FR0006174348</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>FR0006174348</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>453871520</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>17</v>
+        <v>1157</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ANA-ES</t>
+          <t>SGO-FR</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ACCIONA</t>
+          <t>SAINT GOBAIN</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ES0125220311</t>
+          <t>FR0000125007</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>XMAD</t>
+          <t>XPAR</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>54856650</v>
+        <v>504005802</v>
       </c>
       <c r="G5" t="n">
-        <v>123.5</v>
+        <v>77.72</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -751,7 +833,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>6774796275</v>
+        <v>39171330931.44</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -759,10 +841,10 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>13549966.4893939</v>
+        <v>75417904.5290909</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -771,32 +853,51 @@
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="P5" t="n">
-        <v>2.589</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>4</v>
+        <v>2.551</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>FR0000125007</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>FR0000125007</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>80.78</v>
+      </c>
+      <c r="V5" t="n">
+        <v>504005802</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>18</v>
+        <v>605</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AC-FR</t>
+          <t>RMS-FR</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ACCOR</t>
+          <t>HERMES INTL</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FR0000120404</t>
+          <t>FR0000052292</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -805,10 +906,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>243622860</v>
+        <v>105569412</v>
       </c>
       <c r="G6" t="n">
-        <v>37.1</v>
+        <v>2195</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -816,7 +917,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>9038408106</v>
+        <v>231724859340</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -824,7 +925,7 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>26465245.2237879</v>
+        <v>122248589.318182</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -836,44 +937,63 @@
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>290</v>
+        <v>820</v>
       </c>
       <c r="P6" t="n">
-        <v>2.175</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1</v>
+        <v>2.902</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>FR0000052292</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>FR0000052292</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1926</v>
+      </c>
+      <c r="V6" t="n">
+        <v>105569412</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>23</v>
+        <v>263</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ADS-DE</t>
+          <t>CA-FR</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ADIDAS AG</t>
+          <t>CARREFOUR</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DE000A1EWWW0</t>
+          <t>FR0000120172</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>XETR</t>
+          <t>XPAR</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>180000000</v>
+        <v>677969188</v>
       </c>
       <c r="G7" t="n">
-        <v>219.2</v>
+        <v>14.26</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -881,7 +1001,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>39456000000</v>
+        <v>9667840620.879999</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -889,10 +1009,10 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>90357811.2227273</v>
+        <v>28018813.7190151</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -901,63 +1021,74 @@
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>633</v>
       </c>
       <c r="P7" t="n">
-        <v>2.354</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>5</v>
+        <v>2.562</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>FR0000120172</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="n">
+        <v>677969188</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>24</v>
+        <v>823</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ADM-GB</t>
+          <t>OR-FR</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ADMIRAL GROUP PLC</t>
+          <t>L'OREAL</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>GB00B02J6398</t>
+          <t>FR0000120321</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>XLON</t>
+          <t>XPAR</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>306304700</v>
+        <v>534955898</v>
       </c>
       <c r="G8" t="n">
-        <v>34.71526</v>
+        <v>394.4</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>10633447299.722</v>
+        <v>210986606171.2</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>EU500</t>
+          <t>EU500;EZ300</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>13018956.4159441</v>
+        <v>132657034.935606</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -966,44 +1097,63 @@
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>80</v>
+        <v>550</v>
       </c>
       <c r="P8" t="n">
-        <v>2.229</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>6</v>
+        <v>2.456</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>FR0000120321</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>FR0000120321</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" t="n">
+        <v>368.35</v>
+      </c>
+      <c r="V8" t="n">
+        <v>534955898</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>41</v>
+        <v>351</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AD-NL</t>
+          <t>ACA-FR</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>AHOLD DEL</t>
+          <t>CREDIT AGRICOLE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NL0011794037</t>
+          <t>FR0000045072</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>XAMS</t>
+          <t>XPAR</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>936837728</v>
+        <v>3025902350</v>
       </c>
       <c r="G9" t="n">
-        <v>30.19</v>
+        <v>13.715</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1011,7 +1161,7 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>28283131008.32</v>
+        <v>41500250730.25</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1019,10 +1169,10 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>58328070.9539394</v>
+        <v>71824935.4326894</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1031,109 +1181,147 @@
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>487</v>
       </c>
       <c r="P9" t="n">
-        <v>2.221</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>7</v>
+        <v>2.464</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>FR0000045072</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>FR0000045072</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" t="n">
+        <v>14.365</v>
+      </c>
+      <c r="V9" t="n">
+        <v>3025902350</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>51</v>
+        <v>441</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2802-JP</t>
+          <t>FGR-FR</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AJINOMOTO COMPANY</t>
+          <t>EIFFAGE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>JP3119600009</t>
+          <t>FR0000130452</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>XTKS</t>
+          <t>XPAR</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>515731140</v>
+        <v>98000000</v>
       </c>
       <c r="G10" t="n">
-        <v>34.1474</v>
+        <v>93.42</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>JPY</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>17610877530.036</v>
+        <v>9155160000</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>AS500</t>
+          <t>EU500;EZ300</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>52047127.7268287</v>
+        <v>23040732.4890909</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>485</v>
       </c>
       <c r="P10" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>8</v>
+        <v>2.163</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>FR0000130452</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>FR0000130452</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" t="n">
+        <v>93.22</v>
+      </c>
+      <c r="V10" t="n">
+        <v>98000000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AKZA-NL</t>
+          <t>AC-FR</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AKZO NOBEL</t>
+          <t>ACCOR</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NL0013267909</t>
+          <t>FR0000120404</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>XAMS</t>
+          <t>XPAR</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>170775688</v>
+        <v>243622860</v>
       </c>
       <c r="G11" t="n">
-        <v>56.18</v>
+        <v>37.1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1141,7 +1329,7 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>9594178151.84</v>
+        <v>9038408106</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1149,10 +1337,10 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>24427009.7769697</v>
+        <v>26465245.2237879</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1161,44 +1349,63 @@
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>30</v>
+        <v>290</v>
       </c>
       <c r="P11" t="n">
-        <v>2.181</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>9</v>
+        <v>2.175</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>FR0000120404</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>FR0000120404</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" t="n">
+        <v>38.72</v>
+      </c>
+      <c r="V11" t="n">
+        <v>243622860</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>63</v>
+        <v>1085</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ALV-DE</t>
+          <t>PUB-FR</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ALLIANZ SE</t>
+          <t>PUBLICIS GROUPE SA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DE0008404005</t>
+          <t>FR0000130577</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>XETR</t>
+          <t>XPAR</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>391719000</v>
+        <v>254311860</v>
       </c>
       <c r="G12" t="n">
-        <v>276.1</v>
+        <v>96.66</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1206,7 +1413,7 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>108153615900</v>
+        <v>24581784387.6</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1214,10 +1421,10 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>159935912.29697</v>
+        <v>41121336.0998485</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1226,109 +1433,147 @@
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P12" t="n">
-        <v>2.849</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>10</v>
+        <v>2.433</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>FR0000130577</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>FR0000130577</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" t="n">
+        <v>97.42</v>
+      </c>
+      <c r="V12" t="n">
+        <v>254311860</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>71</v>
+        <v>1468</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6113-JP</t>
+          <t>DG-FR</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>AMADA CO LTD</t>
+          <t>VINCI</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>JP3122800000</t>
+          <t>FR0000125486</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>XTKS</t>
+          <t>XPAR</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>341115200</v>
+        <v>588519218</v>
       </c>
       <c r="G13" t="n">
-        <v>9.407329000000001</v>
+        <v>106.85</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>JPY</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>3208982913.3008</v>
+        <v>62883278443.3</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>AS500</t>
+          <t>EU500;EZ300</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>14961313.5115279</v>
+        <v>109196910.070455</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="P13" t="n">
-        <v>1.573</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>11</v>
+        <v>2.02</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>FR0000125486</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>FR0000125486</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" t="n">
+        <v>110.6</v>
+      </c>
+      <c r="V13" t="n">
+        <v>588519218</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>72</v>
+        <v>946</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AMS-ES</t>
+          <t>NEX-FR</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AMADEUS IT GROUP</t>
+          <t>NEXANS</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ES0109067019</t>
+          <t>FR0000044448</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>XMAD</t>
+          <t>XPAR</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>450499200</v>
+        <v>43753380</v>
       </c>
       <c r="G14" t="n">
-        <v>59.64</v>
+        <v>121.6</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1336,7 +1581,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>26867772288</v>
+        <v>5320411008</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1344,10 +1589,10 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>39889796.5470455</v>
+        <v>14041095.9530303</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1356,67 +1601,78 @@
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="P14" t="n">
-        <v>2.608</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>12</v>
+        <v>2.677</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>FR0000044448</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="n">
+        <v>43753380</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AMCR-US</t>
+          <t>CS-FR</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>AMCOR PLC</t>
+          <t>AXA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>JE00BJ1F3079</t>
+          <t>FR0000120628</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>XNYS</t>
+          <t>XPAR</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1445343300</v>
+        <v>2200619258</v>
       </c>
       <c r="G15" t="n">
-        <v>9.929776</v>
+        <v>33.95</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>14351935212.1008</v>
+        <v>74711023809.10001</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>NA500</t>
+          <t>EU500;EZ300</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>98786660.65259629</v>
+        <v>119277207.734848</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="N15" t="inlineStr"/>
@@ -1424,94 +1680,132 @@
         <v>100</v>
       </c>
       <c r="P15" t="n">
-        <v>1.948</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>13</v>
+        <v>2.558</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>FR0000120628</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>FR0000120628</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>1</v>
+      </c>
+      <c r="U15" t="n">
+        <v>36.15</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2200619258</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>84</v>
+        <v>376</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AMGN-US</t>
+          <t>BN-FR</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>AMGEN INC</t>
+          <t>DANONE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>US0311621009</t>
+          <t>FR0000120644</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>XNGS</t>
+          <t>XPAR</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>537329200</v>
+        <v>679553991</v>
       </c>
       <c r="G16" t="n">
-        <v>294.136</v>
+        <v>60.82</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>158047861571.2</v>
+        <v>41330473732.62</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>NA500</t>
+          <t>EU500;EZ300</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>638654449.354319</v>
+        <v>69553543.95378789</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P16" t="n">
-        <v>2.324</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>14</v>
+        <v>2.367</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>FR0000120644</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>FR0000120644</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="V16" t="n">
+        <v>679553991</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>89</v>
+        <v>1125</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AMUN-FR</t>
+          <t>RXL-FR</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AMUNDI</t>
+          <t>REXEL</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FR0004125920</t>
+          <t>FR0010451203</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1520,10 +1814,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>204647634</v>
+        <v>301735000</v>
       </c>
       <c r="G17" t="n">
-        <v>67</v>
+        <v>22.99</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1531,7 +1825,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>13711391478</v>
+        <v>6936887650</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1539,7 +1833,7 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>10364389.4799242</v>
+        <v>17351984.0925</v>
       </c>
       <c r="L17" t="n">
         <v>1</v>
@@ -1551,78 +1845,108 @@
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="P17" t="n">
-        <v>2.619</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
+        <v>2.298</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>FR0010451203</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>FR0010451203</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="V17" t="n">
+        <v>301735000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>101</v>
+        <v>885</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>APO-US</t>
+          <t>ML-FR</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>APOLLO GLOBAL MNGMNT</t>
+          <t>MICHELIN</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>US03769M1062</t>
+          <t>FR001400AJ45</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>XNYS</t>
+          <t>XPAR</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>569534240</v>
+        <v>714958226</v>
       </c>
       <c r="G18" t="n">
-        <v>99.75399</v>
+        <v>35.65</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>56813312881.6176</v>
+        <v>25488260756.9</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>NA500</t>
+          <t>EU500;EZ300</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>303170018.155716</v>
+        <v>51070145.9238636</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="P18" t="n">
-        <v>1.785</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>15</v>
+        <v>2.638</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>FR001400AJ45</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="n">
+        <v>714958226</v>
       </c>
     </row>
     <row r="19">
@@ -1686,62 +2010,81 @@
       <c r="P19" t="n">
         <v>2.874</v>
       </c>
-      <c r="Q19" t="n">
-        <v>3</v>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>FR0010313833</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>FR0010313833</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="V19" t="n">
+        <v>75043514</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>116</v>
+        <v>748</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5201-JP</t>
+          <t>KER-FR</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ASAHI GLASS CO LTD</t>
+          <t>KERING</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>JP3112000009</t>
+          <t>FR0000121485</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>XTKS</t>
+          <t>XPAR</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>217434680</v>
+        <v>123420778</v>
       </c>
       <c r="G20" t="n">
-        <v>28.72424</v>
+        <v>260</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>JPY</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>6245645932.6432</v>
+        <v>32089402280</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>AS500</t>
+          <t>EU500;EZ300</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>30809829.7615345</v>
+        <v>80072338.533712</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
@@ -1749,60 +2092,79 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2.191</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>16</v>
+        <v>2.871</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>FR0000121485</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>FR0000121485</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" t="n">
+        <v>229.65</v>
+      </c>
+      <c r="V20" t="n">
+        <v>123420778</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>129</v>
+        <v>1052</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AZN-GB</t>
+          <t>RI-FR</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ASTRAZENECA</t>
+          <t>PERNOD RICARD</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>GB0009895292</t>
+          <t>FR0000120693</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>XLON</t>
+          <t>XPAR</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1550277000</v>
+        <v>253328748</v>
       </c>
       <c r="G21" t="n">
-        <v>154.2953</v>
+        <v>126.4</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>239200454798.1</v>
+        <v>32020753747.2</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>EU500</t>
+          <t>EU500;EZ300</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>177117269.96527</v>
+        <v>57524911.2526516</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -1814,57 +2176,76 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>17</v>
+        <v>2.347</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>FR0000120693</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>FR0000120693</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" t="n">
+        <v>126.6</v>
+      </c>
+      <c r="V21" t="n">
+        <v>253328748</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>133</v>
+        <v>1101</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ATCO.A-SE</t>
+          <t>RAND-NL</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ATLAS COPCO A</t>
+          <t>RANDSTAD NV</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SE0017486889</t>
+          <t>NL0000379121</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>XSTO</t>
+          <t>XAMS</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3357576400</v>
+        <v>180869312</v>
       </c>
       <c r="G22" t="n">
-        <v>16.24696</v>
+        <v>43.38</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>SEK</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>54550409467.744</v>
+        <v>7846110754.56</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>EU500</t>
+          <t>EU500;EZ300</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>55504953.4848215</v>
+        <v>16508462.6971212</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -1876,52 +2257,71 @@
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>7220</v>
       </c>
       <c r="P22" t="n">
-        <v>2.684</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>18</v>
+        <v>2.171</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>NL0000379121</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>NL0000379121</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" t="n">
+        <v>43.14</v>
+      </c>
+      <c r="V22" t="n">
+        <v>180869312</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>146</v>
+        <v>277</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AVY-US</t>
+          <t>GIB.A-CA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AVERY DENNISON CORP.</t>
+          <t>CGI INC. CLASS A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>US0536111091</t>
+          <t>CA12532H1047</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>XNYS</t>
+          <t>XTSE</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>80519050</v>
+        <v>201180500</v>
       </c>
       <c r="G23" t="n">
-        <v>195.9565</v>
+        <v>97.91055</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>15778231221.325</v>
+        <v>19697693404.275</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1929,7 +2329,7 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>93140816.7214859</v>
+        <v>36063147.8717415</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -1941,125 +2341,163 @@
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>4825</v>
       </c>
       <c r="P23" t="n">
-        <v>2.367</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>19</v>
+        <v>2.389</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>CA12532H1047</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>CA12532H1047</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>0.66148503</v>
+      </c>
+      <c r="U23" t="n">
+        <v>155.93</v>
+      </c>
+      <c r="V23" t="n">
+        <v>201180500</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CS-FR</t>
+          <t>ACN-US</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AXA</t>
+          <t>ACCENTURE PLC-A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FR0000120628</t>
+          <t>IE00B4BNMY34</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>XPAR</t>
+          <t>XNYS</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2200619258</v>
+        <v>626384400</v>
       </c>
       <c r="G24" t="n">
-        <v>33.95</v>
+        <v>298.1348</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>74711023809.10001</v>
+        <v>186746987817.12</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>EU500;EZ300</t>
+          <t>NA500</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>119277207.734848</v>
+        <v>954559170.808251</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="n">
-        <v>100</v>
+        <v>2540</v>
       </c>
       <c r="P24" t="n">
-        <v>2.558</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>4</v>
+        <v>2.2</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>IE00B4BNMY34</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>IE00B4BNMY34</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>0.89891681</v>
+      </c>
+      <c r="U24" t="n">
+        <v>337.04</v>
+      </c>
+      <c r="V24" t="n">
+        <v>626384400</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>154</v>
+        <v>72</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BME-GB</t>
+          <t>AMS-ES</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>B&amp;M EUROP. VALUE RET</t>
+          <t>AMADEUS IT GROUP</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LU1072616219</t>
+          <t>ES0109067019</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>XLON</t>
+          <t>XMAD</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1002790900</v>
+        <v>450499200</v>
       </c>
       <c r="G25" t="n">
-        <v>5.339447</v>
+        <v>59.64</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>5354348862.632299</v>
+        <v>26867772288</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>EU500</t>
+          <t>EU500;EZ300</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>15918713.065607</v>
+        <v>39889796.5470455</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2071,128 +2509,166 @@
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="P25" t="n">
-        <v>1.836</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>20</v>
+        <v>2.608</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>ES0109067019</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>ES0109067019</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>1</v>
+      </c>
+      <c r="U25" t="n">
+        <v>65.18000000000001</v>
+      </c>
+      <c r="V25" t="n">
+        <v>450499200</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>211</v>
+        <v>1405</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BNP-FR</t>
+          <t>7203-JP</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>BNP PARIBAS ACT.A</t>
+          <t>TOYOTA MOTOR CORP</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FR0000131104</t>
+          <t>JP3633400001</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>XPAR</t>
+          <t>XTKS</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1130810671</v>
+        <v>15794987000</v>
       </c>
       <c r="G26" t="n">
-        <v>61.42</v>
+        <v>16.5283</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>JPY</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>69454391412.82001</v>
+        <v>261064283632.1</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>EU500;EZ300</t>
+          <t>AS500</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>174120771.368864</v>
+        <v>542451557.295768</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="n">
-        <v>3380</v>
+        <v>545</v>
       </c>
       <c r="P26" t="n">
-        <v>2.493</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>5</v>
+        <v>2.268</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>JP3633400001</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>JP3633400001</t>
+        </is>
+      </c>
+      <c r="T26" t="n">
+        <v>0.00634358</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2406</v>
+      </c>
+      <c r="V26" t="n">
+        <v>15794987000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BVI-FR</t>
+          <t>III-GB</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BUREAU VERITAS</t>
+          <t>3I GROUP PLC</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>FR0006174348</t>
+          <t>GB00B1YW4409</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>XPAR</t>
+          <t>XLON</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>453871520</v>
+        <v>973383700</v>
       </c>
       <c r="G27" t="n">
-        <v>29.34</v>
+        <v>37.88943</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>13316590396.8</v>
+        <v>36880953564.291</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>EU500;EZ300</t>
+          <t>EU500</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>18780091.9736364</v>
+        <v>52406907.4761769</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2201,63 +2677,82 @@
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="n">
-        <v>1460</v>
+        <v>400</v>
       </c>
       <c r="P27" t="n">
-        <v>2.693</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>6</v>
+        <v>2.829</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>GB00B1YW4409</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>GB00B1YW4409</t>
+        </is>
+      </c>
+      <c r="T27" t="n">
+        <v>0.01185326</v>
+      </c>
+      <c r="U27" t="n">
+        <v>3255</v>
+      </c>
+      <c r="V27" t="n">
+        <v>973383700</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>263</v>
+        <v>1318</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CA-FR</t>
+          <t>SLHN-CH</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CARREFOUR</t>
+          <t>SWISS LIFE HOLDING</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>FR0000120172</t>
+          <t>CH0014852781</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>XPAR</t>
+          <t>XSWX</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>677969188</v>
+        <v>28727518</v>
       </c>
       <c r="G28" t="n">
-        <v>14.26</v>
+        <v>714.0573000000001</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>CHF</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>9667840620.879999</v>
+        <v>20513093938.7814</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>EU500;EZ300</t>
+          <t>EU500</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>28018813.7190151</v>
+        <v>39428704.4678496</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2266,44 +2761,63 @@
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="n">
-        <v>633</v>
+        <v>330</v>
       </c>
       <c r="P28" t="n">
-        <v>2.562</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>7</v>
+        <v>2.676</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>CH0014852781</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>CH0014852781</t>
+        </is>
+      </c>
+      <c r="T28" t="n">
+        <v>1.06185293</v>
+      </c>
+      <c r="U28" t="n">
+        <v>706.6</v>
+      </c>
+      <c r="V28" t="n">
+        <v>28727518</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>351</v>
+        <v>876</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ACA-FR</t>
+          <t>MRK-DE</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CREDIT AGRICOLE</t>
+          <t>MERCK KGA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>FR0000045072</t>
+          <t>DE0006599905</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>XPAR</t>
+          <t>XETR</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3025902350</v>
+        <v>129242250</v>
       </c>
       <c r="G29" t="n">
-        <v>13.715</v>
+        <v>171.5</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2311,7 +2825,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>41500250730.25</v>
+        <v>22165045875</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2319,10 +2833,10 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>71824935.4326894</v>
+        <v>42654726.9068182</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2331,63 +2845,82 @@
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="n">
-        <v>487</v>
+        <v>300</v>
       </c>
       <c r="P29" t="n">
-        <v>2.464</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>8</v>
+        <v>3.189</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>DE0006599905</t>
+        </is>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>DE0006599905</t>
+        </is>
+      </c>
+      <c r="T29" t="n">
+        <v>1</v>
+      </c>
+      <c r="U29" t="n">
+        <v>166.65</v>
+      </c>
+      <c r="V29" t="n">
+        <v>129242250</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>376</v>
+        <v>1194</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BN-FR</t>
+          <t>SECU.B-SE</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DANONE</t>
+          <t>SECURITAS AB</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>FR0000120644</t>
+          <t>SE0000163594</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>XPAR</t>
+          <t>XSTO</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>679553991</v>
+        <v>546454160</v>
       </c>
       <c r="G30" t="n">
-        <v>60.82</v>
+        <v>10.30627</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>SEK</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>41330473732.62</v>
+        <v>5631904115.5832</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>EU500;EZ300</t>
+          <t>EU500</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>69553543.95378789</v>
+        <v>13560020.18693</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -2396,63 +2929,82 @@
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="n">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="P30" t="n">
-        <v>2.367</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>9</v>
+        <v>2.398</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>SE0000163594</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>SE0000163594</t>
+        </is>
+      </c>
+      <c r="T30" t="n">
+        <v>0.0882671</v>
+      </c>
+      <c r="U30" t="n">
+        <v>124.25</v>
+      </c>
+      <c r="V30" t="n">
+        <v>546454160</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>381</v>
+        <v>581</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DSY-FR</t>
+          <t>GSK-GB</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DASSAULT SYSTEMES</t>
+          <t>GSK PLC</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>FR0014003TT8</t>
+          <t>GB00BN7SWP63</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>XPAR</t>
+          <t>XLON</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1338435363</v>
+        <v>4145058000</v>
       </c>
       <c r="G31" t="n">
-        <v>34.25</v>
+        <v>18.90931</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>45841411182.75</v>
+        <v>78380186689.98001</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>EU500;EZ300</t>
+          <t>EU500</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>49912671.6368181</v>
+        <v>98657298.6165323</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -2461,193 +3013,226 @@
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="P31" t="n">
-        <v>2.593</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>10</v>
+        <v>2.482</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>GB00BN7SWP63</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="n">
+        <v>4145058000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>436</v>
+        <v>472</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>EDEN-FR</t>
+          <t>EQIX-US</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>EDENRED</t>
+          <t>EQUINIX INC</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>FR0010908533</t>
+          <t>US29444U7000</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>XPAR</t>
+          <t>XNGS</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>249588059</v>
+        <v>94944990</v>
       </c>
       <c r="G32" t="n">
-        <v>38.29</v>
+        <v>740.6718</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>9556726779.110001</v>
+        <v>70323076644.282</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>EU500;EZ300</t>
+          <t>NA500</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>28725054.8643939</v>
+        <v>329005550.401729</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="P32" t="n">
-        <v>2.684</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>11</v>
+        <v>2.103</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>US29444U7000</t>
+        </is>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="n">
+        <v>94944990</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>441</v>
+        <v>554</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FGR-FR</t>
+          <t>GIS-US</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>EIFFAGE</t>
+          <t>GENERAL MILLS INC.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>FR0000130452</t>
+          <t>US3703341046</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>XPAR</t>
+          <t>XNYS</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>98000000</v>
+        <v>558145700</v>
       </c>
       <c r="G33" t="n">
-        <v>93.42</v>
+        <v>63.36271</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>9155160000</v>
+        <v>35365624126.847</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>EU500;EZ300</t>
+          <t>NA500</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>23040732.4890909</v>
+        <v>242185077.155753</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="n">
-        <v>485</v>
+        <v>132</v>
       </c>
       <c r="P33" t="n">
-        <v>2.163</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>12</v>
+        <v>1.854</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>US3703341046</t>
+        </is>
+      </c>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="n">
+        <v>558145700</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>484</v>
+        <v>942</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ENX-FR</t>
+          <t>NESN-CH</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>EURONEXT</t>
+          <t>NESTLE SA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NL0006294274</t>
+          <t>CH0038863350</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>XPAR</t>
+          <t>XSWX</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>104235507</v>
+        <v>2620000000</v>
       </c>
       <c r="G34" t="n">
-        <v>95.05</v>
+        <v>94.38543</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>CHF</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>9907584940.35</v>
+        <v>247289826600</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>EU500;EZ300</t>
+          <t>EU500</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>16010096.8238636</v>
+        <v>352268633.717224</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -2656,369 +3241,435 @@
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="P34" t="n">
-        <v>2.419</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>13</v>
+        <v>2.376</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>CH0038863350</t>
+        </is>
+      </c>
+      <c r="R34" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="n">
+        <v>2620000000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>563</v>
+        <v>1376</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>GET-FR</t>
+          <t>TMO-US</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>GETLINK SE</t>
+          <t>THERMO FISHER SCIENT</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>FR0010533075</t>
+          <t>US8835561023</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>XPAR</t>
+          <t>XNYS</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>550000000</v>
+        <v>381995570</v>
       </c>
       <c r="G35" t="n">
-        <v>16.22</v>
+        <v>542.2194</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>8921000000</v>
+        <v>207125408768.058</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>EU500;EZ300</t>
+          <t>NA500</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>12764469.0592803</v>
+        <v>828493132.204688</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="P35" t="n">
-        <v>2.689</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>14</v>
+        <v>1.958</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>US8835561023</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="n">
+        <v>381995570</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>605</v>
+        <v>75</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>RMS-FR</t>
+          <t>AMCR-US</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>HERMES INTL</t>
+          <t>AMCOR PLC</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>FR0000052292</t>
+          <t>JE00BJ1F3079</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>XPAR</t>
+          <t>XNYS</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>105569412</v>
+        <v>1445343300</v>
       </c>
       <c r="G36" t="n">
-        <v>2195</v>
+        <v>9.929776</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>231724859340</v>
+        <v>14351935212.1008</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>EU500;EZ300</t>
+          <t>NA500</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>122248589.318182</v>
+        <v>98786660.65259629</v>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="n">
-        <v>820</v>
+        <v>100</v>
       </c>
       <c r="P36" t="n">
-        <v>2.902</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>15</v>
+        <v>1.948</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>JE00BJ1F3079</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="n">
+        <v>1445343300</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>748</v>
+        <v>338</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>KER-FR</t>
+          <t>GLW-US</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>KERING</t>
+          <t>CORNING INC</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>FR0000121485</t>
+          <t>US2193501051</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>XPAR</t>
+          <t>XNYS</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>123420778</v>
+        <v>855700800</v>
       </c>
       <c r="G37" t="n">
-        <v>260</v>
+        <v>37.51845</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>32089402280</v>
+        <v>32104567679.76</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>EU500;EZ300</t>
+          <t>NA500</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>80072338.533712</v>
+        <v>303160979.003157</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P37" t="n">
-        <v>2.871</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>16</v>
+        <v>1.909</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>US2193501051</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="n">
+        <v>855700800</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>767</v>
+        <v>207</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>LI-FR</t>
+          <t>BX-US</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>KLEPIERRE</t>
+          <t>BLACKSTONE INC</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>FR0000121964</t>
+          <t>US09260D1072</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>XPAR</t>
+          <t>XNYS</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>286861172</v>
+        <v>720076700</v>
       </c>
       <c r="G38" t="n">
-        <v>26.98</v>
+        <v>124.5963</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>7739514420.56</v>
+        <v>89718892536.21001</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>EU500;EZ300</t>
+          <t>NA500</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>17665040.62</v>
+        <v>391667622.740324</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="P38" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>17</v>
+        <v>1.738</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>US09260D1072</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
+        <v>1</v>
+      </c>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="n">
+        <v>720076700</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>823</v>
+        <v>1544</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>OR-FR</t>
+          <t>ZBH-US</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>L'OREAL</t>
+          <t>ZIMMER BIOMET HOLD.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>FR0000120321</t>
+          <t>US98956P1021</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>XPAR</t>
+          <t>XNYS</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>534955898</v>
+        <v>203652370</v>
       </c>
       <c r="G39" t="n">
-        <v>394.4</v>
+        <v>102.9208</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>210986606171.2</v>
+        <v>20960064842.296</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>EU500;EZ300</t>
+          <t>NA500</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>132657034.935606</v>
+        <v>157703922.440585</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="n">
-        <v>550</v>
+        <v>86</v>
       </c>
       <c r="P39" t="n">
-        <v>2.456</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>19</v>
+        <v>2.088</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>US98956P1021</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
+        <v>1</v>
+      </c>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="n">
+        <v>203652370</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>802</v>
+        <v>1228</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>LR-FR</t>
+          <t>SIE-DE</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>LEGRAND</t>
+          <t>SIEMENS AG</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>FR0010307819</t>
+          <t>DE0007236101</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>XPAR</t>
+          <t>XETR</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>262245733</v>
+        <v>800000000</v>
       </c>
       <c r="G40" t="n">
-        <v>99.18000000000001</v>
+        <v>167.1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -3026,7 +3677,7 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>26009531798.94</v>
+        <v>133680000000</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3034,10 +3685,10 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>38665016.7473485</v>
+        <v>178937716.224546</v>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3046,63 +3697,82 @@
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="P40" t="n">
-        <v>2.765</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>18</v>
+        <v>2.622</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>DE0007236101</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>DE0007236101</t>
+        </is>
+      </c>
+      <c r="T40" t="n">
+        <v>1</v>
+      </c>
+      <c r="U40" t="n">
+        <v>166.36</v>
+      </c>
+      <c r="V40" t="n">
+        <v>800000000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>831</v>
+        <v>760</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MC-FR</t>
+          <t>KGF-GB</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>LVMH</t>
+          <t>KINGFISHER</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>FR0000121014</t>
+          <t>GB0033195214</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>XPAR</t>
+          <t>XLON</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>500141700</v>
+        <v>1838668600</v>
       </c>
       <c r="G41" t="n">
-        <v>681.1</v>
+        <v>3.392467</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>340646511870</v>
+        <v>6237622549.4362</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>EU500;EZ300</t>
+          <t>EU500</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>248899383.311364</v>
+        <v>14458568.2955012</v>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3111,13 +3781,24 @@
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="n">
-        <v>3286</v>
+        <v>80</v>
       </c>
       <c r="P41" t="n">
-        <v>2.595</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>20</v>
+        <v>2.254</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>GB0033195214</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="n">
+        <v>1838668600</v>
       </c>
     </row>
   </sheetData>
